--- a/data/league_data/france/20/france_shot_creation.xlsx
+++ b/data/league_data/france/20/france_shot_creation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81ABB4F3-77AE-C44D-9631-3DF7FE09ADFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393B52D-6A56-364E-AC6C-BCCDC70FDCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -772,9 +772,6 @@
     <t>Mounir Chouiar</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Mohamed Simakan</t>
   </si>
   <si>
@@ -1817,12 +1814,15 @@
   </si>
   <si>
     <t>Edmilson Indjai</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2680,14 +2680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2715,7 +2715,7 @@
     <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14037,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -14999,12 +14999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>250</v>
+        <v>598</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>41</v>
@@ -15073,12 +15073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>23</v>
@@ -15147,12 +15147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>23</v>
@@ -15221,12 +15221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>23</v>
@@ -15295,12 +15295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>23</v>
@@ -15369,15 +15369,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>20</v>
@@ -15443,12 +15443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>72</v>
@@ -15517,12 +15517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>175</v>
@@ -15591,12 +15591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>82</v>
@@ -15665,12 +15665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>41</v>
@@ -15739,15 +15739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>20</v>
@@ -15813,12 +15813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>23</v>
@@ -15887,12 +15887,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>23</v>
@@ -15961,12 +15961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>23</v>
@@ -16035,12 +16035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>23</v>
@@ -16109,12 +16109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>19</v>
@@ -16183,15 +16183,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>20</v>
@@ -16257,12 +16257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>167</v>
@@ -16331,12 +16331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>23</v>
@@ -16405,15 +16405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>44</v>
@@ -16479,12 +16479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>23</v>
@@ -16553,12 +16553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>175</v>
@@ -16627,15 +16627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>84</v>
@@ -16701,12 +16701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>23</v>
@@ -16775,12 +16775,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>223</v>
@@ -16849,12 +16849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>23</v>
@@ -16923,15 +16923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>20</v>
@@ -16997,12 +16997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>23</v>
@@ -17071,12 +17071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>72</v>
@@ -17145,12 +17145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>23</v>
@@ -17219,12 +17219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>23</v>
@@ -17293,12 +17293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>78</v>
@@ -17367,12 +17367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>23</v>
@@ -17441,12 +17441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>23</v>
@@ -17515,15 +17515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>20</v>
@@ -17589,12 +17589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>82</v>
@@ -17663,12 +17663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>23</v>
@@ -17737,12 +17737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>82</v>
@@ -17811,12 +17811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>41</v>
@@ -17885,12 +17885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>23</v>
@@ -17959,12 +17959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>64</v>
@@ -18033,12 +18033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>23</v>
@@ -18107,12 +18107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>23</v>
@@ -18181,12 +18181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>23</v>
@@ -18255,12 +18255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>23</v>
@@ -18329,12 +18329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>68</v>
@@ -18403,12 +18403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>23</v>
@@ -18477,12 +18477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>23</v>
@@ -18551,12 +18551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>23</v>
@@ -18625,12 +18625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>23</v>
@@ -18699,15 +18699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>84</v>
@@ -18773,12 +18773,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>23</v>
@@ -18847,12 +18847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>154</v>
@@ -18921,12 +18921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>50</v>
@@ -18995,12 +18995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>23</v>
@@ -19069,12 +19069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>23</v>
@@ -19143,12 +19143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>23</v>
@@ -19217,12 +19217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>72</v>
@@ -19291,12 +19291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>23</v>
@@ -19365,12 +19365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>23</v>
@@ -19439,15 +19439,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>84</v>
@@ -19513,12 +19513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>23</v>
@@ -19587,12 +19587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>94</v>
@@ -19661,12 +19661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>23</v>
@@ -19735,12 +19735,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>58</v>
@@ -19809,12 +19809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>23</v>
@@ -19883,12 +19883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>23</v>
@@ -19957,12 +19957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>223</v>
@@ -20031,12 +20031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>94</v>
@@ -20105,12 +20105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>23</v>
@@ -20179,15 +20179,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>84</v>
@@ -20253,12 +20253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>23</v>
@@ -20327,12 +20327,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>23</v>
@@ -20401,12 +20401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>41</v>
@@ -20475,12 +20475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>64</v>
@@ -20549,15 +20549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>20</v>
@@ -20623,12 +20623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>23</v>
@@ -20697,15 +20697,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>20</v>
@@ -20771,12 +20771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>23</v>
@@ -20845,15 +20845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>84</v>
@@ -20919,12 +20919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>23</v>
@@ -20993,12 +20993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>154</v>
@@ -21067,12 +21067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>23</v>
@@ -21141,12 +21141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>23</v>
@@ -21215,15 +21215,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>20</v>
@@ -21289,12 +21289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>72</v>
@@ -21363,12 +21363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>41</v>
@@ -21437,15 +21437,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>79</v>
@@ -21511,12 +21511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>82</v>
@@ -21585,12 +21585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>23</v>
@@ -21659,15 +21659,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>84</v>
@@ -21733,12 +21733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>23</v>
@@ -21807,12 +21807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>58</v>
@@ -21881,12 +21881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>64</v>
@@ -21955,12 +21955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>167</v>
@@ -22029,12 +22029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>23</v>
@@ -22103,12 +22103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>154</v>
@@ -22177,12 +22177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>23</v>
@@ -22251,15 +22251,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>44</v>
@@ -22325,12 +22325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>23</v>
@@ -22399,12 +22399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>23</v>
@@ -22473,12 +22473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>23</v>
@@ -22547,12 +22547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>19</v>
@@ -22621,12 +22621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>94</v>
@@ -22695,12 +22695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>23</v>
@@ -22769,12 +22769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>223</v>
@@ -22843,12 +22843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>23</v>
@@ -22917,12 +22917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>23</v>
@@ -22991,12 +22991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>154</v>
@@ -23065,12 +23065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>23</v>
@@ -23139,12 +23139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>94</v>
@@ -23213,12 +23213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>23</v>
@@ -23287,15 +23287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>26</v>
@@ -23361,12 +23361,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>23</v>
@@ -23435,12 +23435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>216</v>
@@ -23509,12 +23509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>154</v>
@@ -23583,15 +23583,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>109</v>
@@ -23657,12 +23657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>54</v>
@@ -23731,12 +23731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>23</v>
@@ -23805,12 +23805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>23</v>
@@ -23879,12 +23879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>23</v>
@@ -23953,12 +23953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>94</v>
@@ -24027,12 +24027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>23</v>
@@ -24101,12 +24101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>23</v>
@@ -24175,12 +24175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>23</v>
@@ -24249,15 +24249,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>20</v>
@@ -24323,12 +24323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>23</v>
@@ -24397,12 +24397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>23</v>
@@ -24471,12 +24471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>118</v>
@@ -24545,12 +24545,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>41</v>
@@ -24619,12 +24619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>23</v>
@@ -24693,15 +24693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>44</v>
@@ -24767,12 +24767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>41</v>
@@ -24841,15 +24841,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>20</v>
@@ -24915,12 +24915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>41</v>
@@ -24989,12 +24989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>64</v>
@@ -25063,12 +25063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>23</v>
@@ -25137,12 +25137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>58</v>
@@ -25211,15 +25211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>20</v>
@@ -25285,12 +25285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>68</v>
@@ -25359,15 +25359,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>20</v>
@@ -25433,12 +25433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>54</v>
@@ -25507,15 +25507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>84</v>
@@ -25581,12 +25581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>23</v>
@@ -25655,12 +25655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>50</v>
@@ -25729,12 +25729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>23</v>
@@ -25803,12 +25803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>23</v>
@@ -25877,12 +25877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>23</v>
@@ -25951,12 +25951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>78</v>
@@ -26025,12 +26025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>72</v>
@@ -26099,12 +26099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>41</v>
@@ -26173,12 +26173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>23</v>
@@ -26247,15 +26247,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>44</v>
@@ -26321,15 +26321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>129</v>
@@ -26395,12 +26395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>58</v>
@@ -26469,12 +26469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>23</v>
@@ -26543,12 +26543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>58</v>
@@ -26617,12 +26617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>23</v>
@@ -26691,12 +26691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>23</v>
@@ -26765,12 +26765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>72</v>
@@ -26839,12 +26839,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>161</v>
@@ -26913,12 +26913,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>23</v>
@@ -26987,12 +26987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>94</v>
@@ -27061,12 +27061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>38</v>
@@ -27135,12 +27135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>82</v>
@@ -27209,12 +27209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>113</v>
@@ -27283,12 +27283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>23</v>
@@ -27357,12 +27357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>240</v>
@@ -27431,12 +27431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>23</v>
@@ -27505,12 +27505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>94</v>
@@ -27579,15 +27579,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>79</v>
@@ -27653,12 +27653,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>194</v>
@@ -27727,12 +27727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>216</v>
@@ -27801,12 +27801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>23</v>
@@ -27875,12 +27875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>23</v>
@@ -27949,12 +27949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>23</v>
@@ -28023,12 +28023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>23</v>
@@ -28097,12 +28097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>54</v>
@@ -28171,12 +28171,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>23</v>
@@ -28245,12 +28245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>82</v>
@@ -28319,12 +28319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>23</v>
@@ -28393,12 +28393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>23</v>
@@ -28467,12 +28467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>23</v>
@@ -28541,12 +28541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>223</v>
@@ -28615,12 +28615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>19</v>
@@ -28689,12 +28689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>145</v>
@@ -28763,12 +28763,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>145</v>
@@ -28837,12 +28837,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>154</v>
@@ -28911,12 +28911,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>149</v>
@@ -28985,12 +28985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>164</v>
@@ -29059,12 +29059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>58</v>
@@ -29133,15 +29133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>84</v>
@@ -29207,12 +29207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>145</v>
@@ -29281,12 +29281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>23</v>
@@ -29355,12 +29355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>23</v>
@@ -29429,12 +29429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>154</v>
@@ -29503,12 +29503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>64</v>
@@ -29577,15 +29577,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>84</v>
@@ -29651,15 +29651,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>20</v>
@@ -29725,12 +29725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>23</v>
@@ -29799,12 +29799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>223</v>
@@ -29873,12 +29873,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>41</v>
@@ -29947,12 +29947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>23</v>
@@ -30021,12 +30021,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>58</v>
@@ -30095,12 +30095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>82</v>
@@ -30169,12 +30169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>23</v>
@@ -30243,12 +30243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>154</v>
@@ -30317,12 +30317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>23</v>
@@ -30391,12 +30391,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>23</v>
@@ -30465,15 +30465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>79</v>
@@ -30539,12 +30539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>23</v>
@@ -30613,15 +30613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>84</v>
@@ -30687,12 +30687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>23</v>
@@ -30761,12 +30761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>23</v>
@@ -30835,12 +30835,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>23</v>
@@ -30909,12 +30909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>23</v>
@@ -30983,12 +30983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>23</v>
@@ -31057,12 +31057,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>113</v>
@@ -31131,12 +31131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>94</v>
@@ -31205,12 +31205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>23</v>
@@ -31279,12 +31279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>23</v>
@@ -31353,15 +31353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>129</v>
@@ -31427,12 +31427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>23</v>
@@ -31501,15 +31501,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>109</v>
@@ -31575,12 +31575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>23</v>
@@ -31649,12 +31649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>23</v>
@@ -31723,12 +31723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>167</v>
@@ -31797,12 +31797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>64</v>
@@ -31871,12 +31871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>50</v>
@@ -31945,12 +31945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>23</v>
@@ -32019,12 +32019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>23</v>
@@ -32093,15 +32093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>20</v>
@@ -32167,12 +32167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>23</v>
@@ -32241,12 +32241,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>41</v>
@@ -32315,12 +32315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>41</v>
@@ -32389,12 +32389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>23</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -32537,12 +32537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>23</v>
@@ -32611,12 +32611,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>225</v>
@@ -32685,12 +32685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>23</v>
@@ -32759,15 +32759,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>79</v>
@@ -32833,12 +32833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>23</v>
@@ -32907,12 +32907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>41</v>
@@ -32981,12 +32981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>23</v>
@@ -33055,12 +33055,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>23</v>
@@ -33129,12 +33129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>41</v>
@@ -33203,12 +33203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>41</v>
@@ -33277,12 +33277,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>23</v>
@@ -33351,12 +33351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>94</v>
@@ -33425,12 +33425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>41</v>
@@ -33499,12 +33499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>23</v>
@@ -33573,12 +33573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>223</v>
@@ -33647,15 +33647,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>20</v>
@@ -33721,12 +33721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>23</v>
@@ -33795,12 +33795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>23</v>
@@ -33869,15 +33869,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>26</v>
@@ -33943,15 +33943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>26</v>
@@ -34017,12 +34017,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>223</v>
@@ -34091,15 +34091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>26</v>
@@ -34165,12 +34165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>23</v>
@@ -34239,12 +34239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>64</v>
@@ -34313,12 +34313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>23</v>
@@ -34387,12 +34387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>23</v>
@@ -34461,12 +34461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>94</v>
@@ -34535,12 +34535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>170</v>
@@ -34609,12 +34609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>38</v>
@@ -34683,12 +34683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>78</v>
@@ -34757,12 +34757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>23</v>
@@ -34831,12 +34831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>50</v>
@@ -34905,12 +34905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>23</v>
@@ -34979,12 +34979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>23</v>
@@ -35053,12 +35053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>23</v>
@@ -35127,15 +35127,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>44</v>
@@ -35201,12 +35201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>94</v>
@@ -35275,12 +35275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>23</v>
@@ -35349,12 +35349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>23</v>
@@ -35423,12 +35423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>23</v>
@@ -35497,12 +35497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>23</v>
@@ -35571,12 +35571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>23</v>
@@ -35645,15 +35645,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>135</v>
@@ -35719,12 +35719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>41</v>
@@ -35793,15 +35793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>26</v>
@@ -35867,15 +35867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>79</v>
@@ -35941,12 +35941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>23</v>
@@ -36015,12 +36015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>94</v>
@@ -36089,12 +36089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>225</v>
@@ -36163,12 +36163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>23</v>
@@ -36237,12 +36237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>23</v>
@@ -36311,12 +36311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>23</v>
@@ -36385,12 +36385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>82</v>
@@ -36459,15 +36459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>129</v>
@@ -36533,15 +36533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>20</v>
@@ -36607,12 +36607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>54</v>
@@ -36681,12 +36681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>23</v>
@@ -36755,12 +36755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>23</v>
@@ -36829,12 +36829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>23</v>
@@ -36903,12 +36903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>23</v>
@@ -36977,15 +36977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>20</v>
@@ -37051,12 +37051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>23</v>
@@ -37125,12 +37125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>120</v>
@@ -37199,12 +37199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>23</v>
@@ -37273,12 +37273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>82</v>
@@ -37347,12 +37347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>23</v>
@@ -37421,15 +37421,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>20</v>
@@ -37495,12 +37495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>54</v>
@@ -37569,12 +37569,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>23</v>
@@ -37643,12 +37643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>23</v>
@@ -37717,12 +37717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>23</v>
@@ -37791,12 +37791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>72</v>
@@ -37865,12 +37865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>50</v>
@@ -37939,12 +37939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>154</v>
@@ -38013,15 +38013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>129</v>
@@ -38087,12 +38087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>23</v>
@@ -38161,15 +38161,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>44</v>
@@ -38235,12 +38235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>72</v>
@@ -38309,12 +38309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>23</v>
@@ -38383,12 +38383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>23</v>
@@ -38457,12 +38457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>23</v>
@@ -38531,12 +38531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>23</v>
@@ -38605,12 +38605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>175</v>
@@ -38679,12 +38679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>94</v>
@@ -38753,15 +38753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>79</v>
@@ -38827,12 +38827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>23</v>
@@ -38901,15 +38901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>20</v>
@@ -38975,12 +38975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>23</v>
@@ -39049,12 +39049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>82</v>
@@ -39123,12 +39123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>68</v>
@@ -39197,12 +39197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>23</v>
@@ -39271,12 +39271,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>154</v>
@@ -39313,12 +39313,12 @@
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>23</v>
@@ -39387,12 +39387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>23</v>
@@ -39461,12 +39461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>23</v>
@@ -39535,12 +39535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>23</v>
@@ -39609,12 +39609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>216</v>
@@ -39683,7 +39683,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/20/france_shot_creation.xlsx
+++ b/data/league_data/france/20/france_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393B52D-6A56-364E-AC6C-BCCDC70FDCB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E3F495-6306-6743-B06B-B3655D72DF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1273,9 +1273,6 @@
     <t>Xeka</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Anthony Caci</t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2683,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15004,7 +15004,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>41</v>
@@ -26104,7 +26104,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>417</v>
+        <v>598</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>41</v>
@@ -26178,7 +26178,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>23</v>
@@ -26252,7 +26252,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>378</v>
@@ -26326,10 +26326,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>421</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>129</v>
@@ -26400,7 +26400,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>58</v>
@@ -26474,7 +26474,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>23</v>
@@ -26548,7 +26548,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>58</v>
@@ -26622,7 +26622,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>23</v>
@@ -26696,7 +26696,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>23</v>
@@ -26770,7 +26770,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>72</v>
@@ -26844,7 +26844,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>161</v>
@@ -26918,7 +26918,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>23</v>
@@ -26992,7 +26992,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>94</v>
@@ -27066,7 +27066,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>38</v>
@@ -27140,7 +27140,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>82</v>
@@ -27214,7 +27214,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>113</v>
@@ -27288,7 +27288,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>23</v>
@@ -27362,7 +27362,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>240</v>
@@ -27510,7 +27510,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>94</v>
@@ -27584,7 +27584,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>388</v>
@@ -27658,7 +27658,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>194</v>
@@ -27732,7 +27732,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>216</v>
@@ -27806,7 +27806,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>23</v>
@@ -27880,7 +27880,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>23</v>
@@ -27954,7 +27954,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>23</v>
@@ -28028,7 +28028,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>23</v>
@@ -28102,7 +28102,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>54</v>
@@ -28176,7 +28176,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>23</v>
@@ -28250,7 +28250,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>82</v>
@@ -28324,7 +28324,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>23</v>
@@ -28472,7 +28472,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>23</v>
@@ -28546,7 +28546,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>223</v>
@@ -28620,7 +28620,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>19</v>
@@ -28694,7 +28694,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>145</v>
@@ -28768,7 +28768,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>145</v>
@@ -28842,7 +28842,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>154</v>
@@ -28916,7 +28916,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>149</v>
@@ -28990,7 +28990,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>164</v>
@@ -29064,7 +29064,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>58</v>
@@ -29138,7 +29138,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>406</v>
@@ -29212,7 +29212,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>145</v>
@@ -29286,7 +29286,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>23</v>
@@ -29360,7 +29360,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>23</v>
@@ -29434,7 +29434,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>154</v>
@@ -29508,7 +29508,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>64</v>
@@ -29582,10 +29582,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>84</v>
@@ -29656,7 +29656,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>378</v>
@@ -29730,7 +29730,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>23</v>
@@ -29804,7 +29804,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>223</v>
@@ -29878,7 +29878,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>41</v>
@@ -29952,7 +29952,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>23</v>
@@ -30026,7 +30026,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>58</v>
@@ -30100,7 +30100,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>82</v>
@@ -30174,7 +30174,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>23</v>
@@ -30248,7 +30248,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>154</v>
@@ -30322,7 +30322,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>23</v>
@@ -30396,7 +30396,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>23</v>
@@ -30470,10 +30470,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>79</v>
@@ -30544,7 +30544,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>23</v>
@@ -30618,10 +30618,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>84</v>
@@ -30692,7 +30692,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>23</v>
@@ -30766,7 +30766,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>23</v>
@@ -30840,7 +30840,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>23</v>
@@ -30914,7 +30914,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>23</v>
@@ -30988,7 +30988,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>23</v>
@@ -31062,7 +31062,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>113</v>
@@ -31136,7 +31136,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>94</v>
@@ -31210,7 +31210,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>23</v>
@@ -31284,7 +31284,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>23</v>
@@ -31358,7 +31358,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>261</v>
@@ -31432,7 +31432,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>23</v>
@@ -31506,10 +31506,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>109</v>
@@ -31580,7 +31580,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>23</v>
@@ -31654,7 +31654,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>23</v>
@@ -31728,7 +31728,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>167</v>
@@ -31802,7 +31802,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>64</v>
@@ -31876,7 +31876,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>50</v>
@@ -31950,7 +31950,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>23</v>
@@ -32024,7 +32024,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>23</v>
@@ -32098,7 +32098,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>268</v>
@@ -32172,7 +32172,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>23</v>
@@ -32246,7 +32246,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>41</v>
@@ -32320,7 +32320,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>41</v>
@@ -32394,7 +32394,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>23</v>
@@ -32542,7 +32542,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>23</v>
@@ -32616,7 +32616,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>225</v>
@@ -32690,7 +32690,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>23</v>
@@ -32764,10 +32764,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>79</v>
@@ -32838,7 +32838,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>23</v>
@@ -32912,7 +32912,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>41</v>
@@ -32986,7 +32986,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>23</v>
@@ -33060,7 +33060,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>23</v>
@@ -33134,7 +33134,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>41</v>
@@ -33208,7 +33208,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>41</v>
@@ -33282,7 +33282,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>23</v>
@@ -33356,7 +33356,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>94</v>
@@ -33430,7 +33430,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>41</v>
@@ -33504,7 +33504,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>23</v>
@@ -33578,7 +33578,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>223</v>
@@ -33652,7 +33652,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>261</v>
@@ -33726,7 +33726,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>23</v>
@@ -33800,7 +33800,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>23</v>
@@ -33874,7 +33874,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>388</v>
@@ -33948,10 +33948,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>26</v>
@@ -34022,7 +34022,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>223</v>
@@ -34096,10 +34096,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>26</v>
@@ -34244,7 +34244,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>64</v>
@@ -34318,7 +34318,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>23</v>
@@ -34392,7 +34392,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>23</v>
@@ -34466,7 +34466,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>94</v>
@@ -34540,7 +34540,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>170</v>
@@ -34614,7 +34614,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>38</v>
@@ -34688,7 +34688,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>78</v>
@@ -34762,7 +34762,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>23</v>
@@ -34836,7 +34836,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>50</v>
@@ -34910,7 +34910,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>23</v>
@@ -34984,7 +34984,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>23</v>
@@ -35058,7 +35058,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>23</v>
@@ -35132,7 +35132,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>347</v>
@@ -35206,7 +35206,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>94</v>
@@ -35280,7 +35280,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>23</v>
@@ -35354,7 +35354,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>23</v>
@@ -35428,7 +35428,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>23</v>
@@ -35502,7 +35502,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>23</v>
@@ -35576,7 +35576,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>23</v>
@@ -35650,7 +35650,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>329</v>
@@ -35724,7 +35724,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>41</v>
@@ -35798,7 +35798,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>398</v>
@@ -35872,10 +35872,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>79</v>
@@ -35946,7 +35946,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>23</v>
@@ -36020,7 +36020,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>94</v>
@@ -36094,7 +36094,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>225</v>
@@ -36168,7 +36168,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>23</v>
@@ -36242,7 +36242,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>23</v>
@@ -36316,7 +36316,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>23</v>
@@ -36390,7 +36390,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>82</v>
@@ -36464,7 +36464,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>329</v>
@@ -36538,7 +36538,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>276</v>
@@ -36612,7 +36612,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>54</v>
@@ -36686,7 +36686,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>23</v>
@@ -36760,7 +36760,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>23</v>
@@ -36834,7 +36834,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>23</v>
@@ -36908,7 +36908,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>23</v>
@@ -36982,7 +36982,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>272</v>
@@ -37056,7 +37056,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>23</v>
@@ -37130,7 +37130,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>120</v>
@@ -37204,7 +37204,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>23</v>
@@ -37278,7 +37278,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>82</v>
@@ -37352,7 +37352,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>23</v>
@@ -37426,10 +37426,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>20</v>
@@ -37500,7 +37500,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>54</v>
@@ -37574,7 +37574,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>23</v>
@@ -37648,7 +37648,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>23</v>
@@ -37722,7 +37722,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>23</v>
@@ -37796,7 +37796,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>72</v>
@@ -37870,7 +37870,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>50</v>
@@ -37944,7 +37944,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>154</v>
@@ -38018,7 +38018,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>406</v>
@@ -38166,10 +38166,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>44</v>
@@ -38240,7 +38240,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>72</v>
@@ -38314,7 +38314,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>23</v>
@@ -38388,7 +38388,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>23</v>
@@ -38462,7 +38462,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>23</v>
@@ -38536,7 +38536,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>23</v>
@@ -38610,7 +38610,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>175</v>
@@ -38684,7 +38684,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>94</v>
@@ -38758,7 +38758,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>347</v>
@@ -38832,7 +38832,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>23</v>
@@ -38906,7 +38906,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>388</v>
@@ -39054,7 +39054,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>82</v>
@@ -39128,7 +39128,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>68</v>
@@ -39202,7 +39202,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>23</v>
@@ -39276,7 +39276,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>154</v>
@@ -39318,7 +39318,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>23</v>
@@ -39392,7 +39392,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>23</v>
@@ -39466,7 +39466,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>23</v>
@@ -39540,7 +39540,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>23</v>
@@ -39614,7 +39614,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>216</v>
